--- a/Financials/Quarterly/TM_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TM_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D7398-0D6F-466D-B845-39A3E38A5D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TM" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,148 +689,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>65307400</v>
+        <v>70525900</v>
       </c>
       <c r="E8" s="3">
-        <v>67257100</v>
+        <v>66093900</v>
       </c>
       <c r="F8" s="3">
-        <v>67463200</v>
+        <v>66559100</v>
       </c>
       <c r="G8" s="3">
-        <v>63363700</v>
+        <v>68546100</v>
       </c>
       <c r="H8" s="3">
-        <v>62512300</v>
+        <v>68756100</v>
       </c>
       <c r="I8" s="3">
+        <v>64578200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>63710400</v>
+      </c>
+      <c r="K8" s="3">
         <v>66014700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>62836700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>57490200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>53114900</v>
+        <v>57387400</v>
       </c>
       <c r="E9" s="3">
-        <v>53884500</v>
+        <v>54203900</v>
       </c>
       <c r="F9" s="3">
-        <v>54977600</v>
+        <v>54132900</v>
       </c>
       <c r="G9" s="3">
-        <v>52005000</v>
+        <v>54917300</v>
       </c>
       <c r="H9" s="3">
-        <v>51029700</v>
+        <v>56031300</v>
       </c>
       <c r="I9" s="3">
+        <v>53001700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>52007700</v>
+      </c>
+      <c r="K9" s="3">
         <v>54781300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>52933200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>47112300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12192500</v>
+        <v>13138600</v>
       </c>
       <c r="E10" s="3">
-        <v>13372500</v>
+        <v>11890000</v>
       </c>
       <c r="F10" s="3">
-        <v>12485600</v>
+        <v>12426200</v>
       </c>
       <c r="G10" s="3">
-        <v>11358800</v>
+        <v>13628800</v>
       </c>
       <c r="H10" s="3">
-        <v>11482600</v>
+        <v>12724900</v>
       </c>
       <c r="I10" s="3">
+        <v>11576500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11702700</v>
+      </c>
+      <c r="K10" s="3">
         <v>11233500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9903500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>10377900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +866,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +897,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +932,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,8 +967,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,8 +1002,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1018,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59252000</v>
+        <v>64413700</v>
       </c>
       <c r="E17" s="3">
-        <v>61671900</v>
+        <v>60858300</v>
       </c>
       <c r="F17" s="3">
-        <v>61487900</v>
+        <v>60387600</v>
       </c>
       <c r="G17" s="3">
-        <v>58731400</v>
+        <v>62853900</v>
       </c>
       <c r="H17" s="3">
-        <v>57418300</v>
+        <v>62666400</v>
       </c>
       <c r="I17" s="3">
+        <v>59857000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>58518700</v>
+      </c>
+      <c r="K17" s="3">
         <v>62121500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>58946500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>53280200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6055400</v>
+        <v>6112200</v>
       </c>
       <c r="E18" s="3">
-        <v>5585200</v>
+        <v>5235600</v>
       </c>
       <c r="F18" s="3">
-        <v>5975200</v>
+        <v>6171500</v>
       </c>
       <c r="G18" s="3">
-        <v>4632300</v>
+        <v>5692300</v>
       </c>
       <c r="H18" s="3">
-        <v>5094000</v>
+        <v>6089800</v>
       </c>
       <c r="I18" s="3">
+        <v>4721100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5191600</v>
+      </c>
+      <c r="K18" s="3">
         <v>3893200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3890300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4210000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,153 +1103,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1194000</v>
+        <v>-4431900</v>
       </c>
       <c r="E20" s="3">
-        <v>-42800</v>
+        <v>1482100</v>
       </c>
       <c r="F20" s="3">
-        <v>743300</v>
+        <v>1216900</v>
       </c>
       <c r="G20" s="3">
-        <v>529800</v>
+        <v>-43600</v>
       </c>
       <c r="H20" s="3">
-        <v>970800</v>
+        <v>757600</v>
       </c>
       <c r="I20" s="3">
+        <v>540000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>989400</v>
+      </c>
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1396400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>275300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10916800</v>
+        <v>5805300</v>
       </c>
       <c r="E21" s="3">
-        <v>9561500</v>
+        <v>10802500</v>
       </c>
       <c r="F21" s="3">
-        <v>10680300</v>
+        <v>11126000</v>
       </c>
       <c r="G21" s="3">
-        <v>9008700</v>
+        <v>9744800</v>
       </c>
       <c r="H21" s="3">
-        <v>9618200</v>
+        <v>10885000</v>
       </c>
       <c r="I21" s="3">
+        <v>9181300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9802600</v>
+      </c>
+      <c r="K21" s="3">
         <v>7767700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>8902900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>7898100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30500</v>
+        <v>80500</v>
       </c>
       <c r="E22" s="3">
-        <v>66900</v>
+        <v>73800</v>
       </c>
       <c r="F22" s="3">
-        <v>57700</v>
+        <v>31100</v>
       </c>
       <c r="G22" s="3">
-        <v>81200</v>
+        <v>68100</v>
       </c>
       <c r="H22" s="3">
-        <v>38900</v>
+        <v>58800</v>
       </c>
       <c r="I22" s="3">
+        <v>82700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K22" s="3">
         <v>86600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>75200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7219000</v>
+        <v>1599800</v>
       </c>
       <c r="E23" s="3">
-        <v>5475600</v>
+        <v>6643900</v>
       </c>
       <c r="F23" s="3">
-        <v>6660800</v>
+        <v>7357300</v>
       </c>
       <c r="G23" s="3">
-        <v>5081000</v>
+        <v>5580500</v>
       </c>
       <c r="H23" s="3">
-        <v>6025800</v>
+        <v>6788500</v>
       </c>
       <c r="I23" s="3">
+        <v>5178300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6141300</v>
+      </c>
+      <c r="K23" s="3">
         <v>3811900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5211500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4430400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2183500</v>
+        <v>55600</v>
       </c>
       <c r="E24" s="3">
-        <v>2005500</v>
+        <v>2055900</v>
       </c>
       <c r="F24" s="3">
-        <v>-851000</v>
+        <v>2225300</v>
       </c>
       <c r="G24" s="3">
-        <v>1675100</v>
+        <v>2043900</v>
       </c>
       <c r="H24" s="3">
-        <v>1644500</v>
+        <v>-867300</v>
       </c>
       <c r="I24" s="3">
+        <v>1707200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1676000</v>
+      </c>
+      <c r="K24" s="3">
         <v>919400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1510700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1482200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1309,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5035500</v>
+        <v>1544200</v>
       </c>
       <c r="E26" s="3">
-        <v>3470100</v>
+        <v>4588000</v>
       </c>
       <c r="F26" s="3">
-        <v>7511800</v>
+        <v>5132000</v>
       </c>
       <c r="G26" s="3">
-        <v>3405900</v>
+        <v>3536600</v>
       </c>
       <c r="H26" s="3">
-        <v>4381300</v>
+        <v>7655800</v>
       </c>
       <c r="I26" s="3">
+        <v>3471100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4465300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2892500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3700700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5797500</v>
+        <v>1602100</v>
       </c>
       <c r="E27" s="3">
-        <v>4237500</v>
+        <v>5255800</v>
       </c>
       <c r="F27" s="3">
-        <v>8326900</v>
+        <v>5908600</v>
       </c>
       <c r="G27" s="3">
-        <v>4037600</v>
+        <v>4318700</v>
       </c>
       <c r="H27" s="3">
-        <v>5410500</v>
+        <v>8486500</v>
       </c>
       <c r="I27" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5514200</v>
+      </c>
+      <c r="K27" s="3">
         <v>3512100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4293800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3470500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1414,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1449,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1484,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1519,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1194000</v>
+        <v>4431900</v>
       </c>
       <c r="E32" s="3">
-        <v>42800</v>
+        <v>-1482100</v>
       </c>
       <c r="F32" s="3">
-        <v>-743300</v>
+        <v>-1216900</v>
       </c>
       <c r="G32" s="3">
-        <v>-529800</v>
+        <v>43600</v>
       </c>
       <c r="H32" s="3">
-        <v>-970800</v>
+        <v>-757600</v>
       </c>
       <c r="I32" s="3">
+        <v>-540000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-989400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1396400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-275300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5797500</v>
+        <v>1602100</v>
       </c>
       <c r="E33" s="3">
-        <v>4237500</v>
+        <v>5255800</v>
       </c>
       <c r="F33" s="3">
-        <v>8326900</v>
+        <v>5908600</v>
       </c>
       <c r="G33" s="3">
-        <v>4037600</v>
+        <v>4318700</v>
       </c>
       <c r="H33" s="3">
-        <v>5410500</v>
+        <v>8486500</v>
       </c>
       <c r="I33" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5514200</v>
+      </c>
+      <c r="K33" s="3">
         <v>3512100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4293800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3470500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1624,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5797500</v>
+        <v>1602100</v>
       </c>
       <c r="E35" s="3">
-        <v>4237500</v>
+        <v>5255800</v>
       </c>
       <c r="F35" s="3">
-        <v>8326900</v>
+        <v>5908600</v>
       </c>
       <c r="G35" s="3">
-        <v>4037600</v>
+        <v>4318700</v>
       </c>
       <c r="H35" s="3">
-        <v>5410500</v>
+        <v>8486500</v>
       </c>
       <c r="I35" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5514200</v>
+      </c>
+      <c r="K35" s="3">
         <v>3512100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4293800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3470500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1718,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,240 +1733,290 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>26850100</v>
+        <v>28584800</v>
       </c>
       <c r="E41" s="3">
-        <v>27073600</v>
+        <v>29350600</v>
       </c>
       <c r="F41" s="3">
-        <v>24362900</v>
+        <v>27364700</v>
       </c>
       <c r="G41" s="3">
-        <v>24963200</v>
+        <v>27592500</v>
       </c>
       <c r="H41" s="3">
-        <v>26085200</v>
+        <v>24829800</v>
       </c>
       <c r="I41" s="3">
+        <v>25441600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>26585100</v>
+      </c>
+      <c r="K41" s="3">
         <v>26566300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>22625500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>24543300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22334900</v>
+        <v>19010900</v>
       </c>
       <c r="E42" s="3">
-        <v>23679400</v>
+        <v>23713800</v>
       </c>
       <c r="F42" s="3">
-        <v>27001500</v>
+        <v>22762900</v>
       </c>
       <c r="G42" s="3">
-        <v>27250400</v>
+        <v>24133200</v>
       </c>
       <c r="H42" s="3">
-        <v>26483900</v>
+        <v>27519000</v>
       </c>
       <c r="I42" s="3">
+        <v>27772600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>26991500</v>
+      </c>
+      <c r="K42" s="3">
         <v>25760700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>23886000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>22095100</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>80010800</v>
+        <v>81659900</v>
       </c>
       <c r="E43" s="3">
-        <v>80337400</v>
+        <v>82832500</v>
       </c>
       <c r="F43" s="3">
-        <v>81190700</v>
+        <v>81544200</v>
       </c>
       <c r="G43" s="3">
-        <v>78573500</v>
+        <v>81877100</v>
       </c>
       <c r="H43" s="3">
-        <v>78161600</v>
+        <v>82746800</v>
       </c>
       <c r="I43" s="3">
+        <v>80079400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>79659600</v>
+      </c>
+      <c r="K43" s="3">
         <v>77607700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>76423700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>67244000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22502700</v>
+        <v>23098400</v>
       </c>
       <c r="E44" s="3">
-        <v>22527900</v>
+        <v>23355200</v>
       </c>
       <c r="F44" s="3">
-        <v>22550300</v>
+        <v>22934000</v>
       </c>
       <c r="G44" s="3">
-        <v>22100300</v>
+        <v>22959700</v>
       </c>
       <c r="H44" s="3">
-        <v>21791000</v>
+        <v>22982500</v>
       </c>
       <c r="I44" s="3">
+        <v>22523800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>22208700</v>
+      </c>
+      <c r="K44" s="3">
         <v>21187000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>19622800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>18255100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8200600</v>
+        <v>8478300</v>
       </c>
       <c r="E45" s="3">
-        <v>7395700</v>
+        <v>8223000</v>
       </c>
       <c r="F45" s="3">
-        <v>9030700</v>
+        <v>8357800</v>
       </c>
       <c r="G45" s="3">
-        <v>7887900</v>
+        <v>7537400</v>
       </c>
       <c r="H45" s="3">
-        <v>7693100</v>
+        <v>9203800</v>
       </c>
       <c r="I45" s="3">
+        <v>8039100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7840500</v>
+      </c>
+      <c r="K45" s="3">
         <v>7063200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8570400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6705800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>159899000</v>
+        <v>160832400</v>
       </c>
       <c r="E46" s="3">
-        <v>161014100</v>
+        <v>167475000</v>
       </c>
       <c r="F46" s="3">
-        <v>164136100</v>
+        <v>162963600</v>
       </c>
       <c r="G46" s="3">
-        <v>160775200</v>
+        <v>164100000</v>
       </c>
       <c r="H46" s="3">
-        <v>160214700</v>
+        <v>167281900</v>
       </c>
       <c r="I46" s="3">
+        <v>163856500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>163285300</v>
+      </c>
+      <c r="K46" s="3">
         <v>158184900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>151128400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>138843300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>188685600</v>
+        <v>193642500</v>
       </c>
       <c r="E47" s="3">
-        <v>183311100</v>
+        <v>198988700</v>
       </c>
       <c r="F47" s="3">
-        <v>187120400</v>
+        <v>192301900</v>
       </c>
       <c r="G47" s="3">
-        <v>182532600</v>
+        <v>186824400</v>
       </c>
       <c r="H47" s="3">
-        <v>177309400</v>
+        <v>190706700</v>
       </c>
       <c r="I47" s="3">
+        <v>186031000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>180707700</v>
+      </c>
+      <c r="K47" s="3">
         <v>173523600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>175994900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>158917500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>93004800</v>
+        <v>95430400</v>
       </c>
       <c r="E48" s="3">
-        <v>91074300</v>
+        <v>96555500</v>
       </c>
       <c r="F48" s="3">
-        <v>92809700</v>
+        <v>94787300</v>
       </c>
       <c r="G48" s="3">
-        <v>92107500</v>
+        <v>92819800</v>
       </c>
       <c r="H48" s="3">
-        <v>90808800</v>
+        <v>94588400</v>
       </c>
       <c r="I48" s="3">
+        <v>93872800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>92549200</v>
+      </c>
+      <c r="K48" s="3">
         <v>90448400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>90448900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>82391900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1789,8 +2044,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2079,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2114,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11216600</v>
+        <v>11912100</v>
       </c>
       <c r="E52" s="3">
-        <v>10834700</v>
+        <v>11725500</v>
       </c>
       <c r="F52" s="3">
-        <v>10223800</v>
+        <v>11431600</v>
       </c>
       <c r="G52" s="3">
-        <v>10329100</v>
+        <v>11042400</v>
       </c>
       <c r="H52" s="3">
-        <v>10342100</v>
+        <v>10419800</v>
       </c>
       <c r="I52" s="3">
+        <v>10527100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>10540300</v>
+      </c>
+      <c r="K52" s="3">
         <v>10257300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9176700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8141300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2184,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>452806000</v>
+        <v>461817400</v>
       </c>
       <c r="E54" s="3">
-        <v>446234200</v>
+        <v>474744700</v>
       </c>
       <c r="F54" s="3">
-        <v>454290000</v>
+        <v>461484300</v>
       </c>
       <c r="G54" s="3">
-        <v>445744400</v>
+        <v>454786600</v>
       </c>
       <c r="H54" s="3">
-        <v>438675000</v>
+        <v>462996800</v>
       </c>
       <c r="I54" s="3">
+        <v>454287400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>447082500</v>
+      </c>
+      <c r="K54" s="3">
         <v>432414100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>426748900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>388294100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2238,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2253,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21204800</v>
+        <v>21203200</v>
       </c>
       <c r="E57" s="3">
-        <v>22943600</v>
+        <v>21523900</v>
       </c>
       <c r="F57" s="3">
-        <v>20474700</v>
+        <v>21611200</v>
       </c>
       <c r="G57" s="3">
-        <v>21321300</v>
+        <v>23383400</v>
       </c>
       <c r="H57" s="3">
-        <v>20661200</v>
+        <v>20867100</v>
       </c>
       <c r="I57" s="3">
+        <v>21729900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>21057200</v>
+      </c>
+      <c r="K57" s="3">
         <v>22763800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>18944200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>19743700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>87146800</v>
+        <v>88543000</v>
       </c>
       <c r="E58" s="3">
-        <v>82856400</v>
+        <v>88781800</v>
       </c>
       <c r="F58" s="3">
-        <v>87570300</v>
+        <v>88817100</v>
       </c>
       <c r="G58" s="3">
-        <v>83317600</v>
+        <v>84444400</v>
       </c>
       <c r="H58" s="3">
-        <v>82113300</v>
+        <v>89248600</v>
       </c>
       <c r="I58" s="3">
+        <v>84914500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>83687100</v>
+      </c>
+      <c r="K58" s="3">
         <v>81995400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>84840900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>72334800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49828600</v>
+        <v>50906200</v>
       </c>
       <c r="E59" s="3">
-        <v>52058400</v>
+        <v>52250700</v>
       </c>
       <c r="F59" s="3">
-        <v>49774600</v>
+        <v>50783600</v>
       </c>
       <c r="G59" s="3">
-        <v>49011600</v>
+        <v>53056200</v>
       </c>
       <c r="H59" s="3">
-        <v>49653200</v>
+        <v>50728500</v>
       </c>
       <c r="I59" s="3">
+        <v>49950900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>50604800</v>
+      </c>
+      <c r="K59" s="3">
         <v>48860000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>46011600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>41133500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>158180300</v>
+        <v>160652300</v>
       </c>
       <c r="E60" s="3">
-        <v>157858400</v>
+        <v>162556400</v>
       </c>
       <c r="F60" s="3">
-        <v>157819500</v>
+        <v>161211900</v>
       </c>
       <c r="G60" s="3">
-        <v>153650500</v>
+        <v>160883900</v>
       </c>
       <c r="H60" s="3">
-        <v>152427700</v>
+        <v>160844300</v>
       </c>
       <c r="I60" s="3">
+        <v>156595300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>155349100</v>
+      </c>
+      <c r="K60" s="3">
         <v>153619200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>149796700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>133212000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>92386000</v>
+        <v>94319200</v>
       </c>
       <c r="E61" s="3">
-        <v>88756500</v>
+        <v>100023000</v>
       </c>
       <c r="F61" s="3">
-        <v>93062600</v>
+        <v>94156600</v>
       </c>
       <c r="G61" s="3">
-        <v>93160000</v>
+        <v>90457600</v>
       </c>
       <c r="H61" s="3">
-        <v>91539800</v>
+        <v>94846200</v>
       </c>
       <c r="I61" s="3">
+        <v>94945500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>93294300</v>
+      </c>
+      <c r="K61" s="3">
         <v>87915900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>87646900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>77222800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23749600</v>
+        <v>23555500</v>
       </c>
       <c r="E62" s="3">
-        <v>22910400</v>
+        <v>24954100</v>
       </c>
       <c r="F62" s="3">
-        <v>24496500</v>
+        <v>24204800</v>
       </c>
       <c r="G62" s="3">
-        <v>26801000</v>
+        <v>23349500</v>
       </c>
       <c r="H62" s="3">
-        <v>25966300</v>
+        <v>24966000</v>
       </c>
       <c r="I62" s="3">
+        <v>27314600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>26464000</v>
+      </c>
+      <c r="K62" s="3">
         <v>25285500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>26194100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23146400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2494,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2529,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2564,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>280383200</v>
+        <v>284781500</v>
       </c>
       <c r="E66" s="3">
-        <v>275682200</v>
+        <v>293881000</v>
       </c>
       <c r="F66" s="3">
-        <v>281454600</v>
+        <v>285756900</v>
       </c>
       <c r="G66" s="3">
-        <v>279493600</v>
+        <v>280965800</v>
       </c>
       <c r="H66" s="3">
-        <v>275815100</v>
+        <v>286848900</v>
       </c>
       <c r="I66" s="3">
+        <v>284850300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>281101200</v>
+      </c>
+      <c r="K66" s="3">
         <v>272748000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>269069900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>238609600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2618,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2649,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,37 +2684,49 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4363600</v>
+        <v>4469200</v>
       </c>
       <c r="E70" s="3">
-        <v>4363800</v>
+        <v>4480700</v>
       </c>
       <c r="F70" s="3">
-        <v>4336600</v>
+        <v>4447200</v>
       </c>
       <c r="G70" s="3">
-        <v>4342300</v>
+        <v>4447400</v>
       </c>
       <c r="H70" s="3">
-        <v>4315100</v>
+        <v>4419700</v>
       </c>
       <c r="I70" s="3">
+        <v>4425500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>4397800</v>
+      </c>
+      <c r="K70" s="3">
         <v>4309700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>4288000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>4288200</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2754,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>185164300</v>
+        <v>194646100</v>
       </c>
       <c r="E72" s="3">
-        <v>172729600</v>
+        <v>193968900</v>
       </c>
       <c r="F72" s="3">
-        <v>168391000</v>
+        <v>188713100</v>
       </c>
       <c r="G72" s="3">
-        <v>162664400</v>
+        <v>176040100</v>
       </c>
       <c r="H72" s="3">
-        <v>158628500</v>
+        <v>171618300</v>
       </c>
       <c r="I72" s="3">
+        <v>165782000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>161668700</v>
+      </c>
+      <c r="K72" s="3">
         <v>156121500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>152612700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>154350200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2824,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2859,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2894,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>168059200</v>
+        <v>172566700</v>
       </c>
       <c r="E76" s="3">
-        <v>166188200</v>
+        <v>176383000</v>
       </c>
       <c r="F76" s="3">
-        <v>168498800</v>
+        <v>171280100</v>
       </c>
       <c r="G76" s="3">
-        <v>161908500</v>
+        <v>169373300</v>
       </c>
       <c r="H76" s="3">
-        <v>158544900</v>
+        <v>171728300</v>
       </c>
       <c r="I76" s="3">
+        <v>165011600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>161583500</v>
+      </c>
+      <c r="K76" s="3">
         <v>155356400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>153390900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>145396200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2964,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5797500</v>
+        <v>1602100</v>
       </c>
       <c r="E81" s="3">
-        <v>4237500</v>
+        <v>5255800</v>
       </c>
       <c r="F81" s="3">
-        <v>8326900</v>
+        <v>5908600</v>
       </c>
       <c r="G81" s="3">
-        <v>4037600</v>
+        <v>4318700</v>
       </c>
       <c r="H81" s="3">
-        <v>5410500</v>
+        <v>8486500</v>
       </c>
       <c r="I81" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5514200</v>
+      </c>
+      <c r="K81" s="3">
         <v>3512100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4293800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3470500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3058,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3667300</v>
+        <v>4125000</v>
       </c>
       <c r="E83" s="3">
-        <v>4019100</v>
+        <v>4084800</v>
       </c>
       <c r="F83" s="3">
-        <v>3961800</v>
+        <v>3737600</v>
       </c>
       <c r="G83" s="3">
-        <v>3846500</v>
+        <v>4096100</v>
       </c>
       <c r="H83" s="3">
-        <v>3553500</v>
+        <v>4037700</v>
       </c>
       <c r="I83" s="3">
+        <v>3920300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3621600</v>
+      </c>
+      <c r="K83" s="3">
         <v>3869200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3616300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3412800</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3124,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3159,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3194,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3229,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3264,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7309000</v>
+        <v>9406900</v>
       </c>
       <c r="E89" s="3">
-        <v>12117600</v>
+        <v>9059600</v>
       </c>
       <c r="F89" s="3">
-        <v>7145900</v>
+        <v>7449100</v>
       </c>
       <c r="G89" s="3">
-        <v>8567500</v>
+        <v>12349800</v>
       </c>
       <c r="H89" s="3">
-        <v>9511900</v>
+        <v>7282900</v>
       </c>
       <c r="I89" s="3">
+        <v>8731700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>9694200</v>
+      </c>
+      <c r="K89" s="3">
         <v>11113700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5205900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3514000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3318,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9116000</v>
+        <v>-3033000</v>
       </c>
       <c r="E91" s="3">
-        <v>-8668600</v>
+        <v>-2657900</v>
       </c>
       <c r="F91" s="3">
-        <v>-7533700</v>
+        <v>-3827800</v>
       </c>
       <c r="G91" s="3">
-        <v>-7979300</v>
+        <v>-3794700</v>
       </c>
       <c r="H91" s="3">
-        <v>-7739000</v>
+        <v>-2641300</v>
       </c>
       <c r="I91" s="3">
+        <v>-2691800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2543900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8260400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7265200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7371200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3384,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3419,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9248100</v>
+        <v>-4415200</v>
       </c>
       <c r="E94" s="3">
-        <v>-6655600</v>
+        <v>-7337200</v>
       </c>
       <c r="F94" s="3">
-        <v>-8634400</v>
+        <v>-9425300</v>
       </c>
       <c r="G94" s="3">
-        <v>-8147400</v>
+        <v>-6783100</v>
       </c>
       <c r="H94" s="3">
-        <v>-9027700</v>
+        <v>-8799800</v>
       </c>
       <c r="I94" s="3">
+        <v>-8303500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9200700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7191200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-9972400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4224000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3473,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33000</v>
+        <v>-44900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-33000</v>
+        <v>-33600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-21900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3539,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3574,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3609,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1392600</v>
+        <v>-5337900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2087600</v>
+        <v>-23800</v>
       </c>
       <c r="F100" s="3">
-        <v>782600</v>
+        <v>1419300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1705600</v>
+        <v>-2127600</v>
       </c>
       <c r="H100" s="3">
-        <v>-973200</v>
+        <v>797600</v>
       </c>
       <c r="I100" s="3">
+        <v>-1738300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-991900</v>
+      </c>
+      <c r="K100" s="3">
         <v>17800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1679500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3566000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>85000</v>
+        <v>-457800</v>
       </c>
       <c r="E101" s="3">
-        <v>-663700</v>
+        <v>247200</v>
       </c>
       <c r="F101" s="3">
-        <v>105600</v>
+        <v>86700</v>
       </c>
       <c r="G101" s="3">
-        <v>163500</v>
+        <v>-676400</v>
       </c>
       <c r="H101" s="3">
-        <v>7900</v>
+        <v>107600</v>
       </c>
       <c r="I101" s="3">
+        <v>166700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1169200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-223300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-461400</v>
+        <v>-804000</v>
       </c>
       <c r="E102" s="3">
-        <v>2710700</v>
+        <v>1945800</v>
       </c>
       <c r="F102" s="3">
-        <v>-600300</v>
+        <v>-470300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1122000</v>
+        <v>2762700</v>
       </c>
       <c r="H102" s="3">
-        <v>-481200</v>
+        <v>-611800</v>
       </c>
       <c r="I102" s="3">
+        <v>-1143500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-490400</v>
+      </c>
+      <c r="K102" s="3">
         <v>3940800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1917900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4499300</v>
       </c>
     </row>

--- a/Financials/Quarterly/TM_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TM_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D7398-0D6F-466D-B845-39A3E38A5D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TM" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,172 +654,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70525900</v>
+        <v>68580100</v>
       </c>
       <c r="E8" s="3">
-        <v>66093900</v>
+        <v>69443100</v>
       </c>
       <c r="F8" s="3">
-        <v>66559100</v>
+        <v>69503000</v>
       </c>
       <c r="G8" s="3">
+        <v>70448700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>70916000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>66459500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>66927200</v>
+      </c>
+      <c r="K8" s="3">
         <v>68546100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>68756100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>64578200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>63710400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>66014700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>62836700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>57490200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>57387400</v>
+        <v>55891300</v>
       </c>
       <c r="E9" s="3">
-        <v>54203900</v>
+        <v>57125200</v>
       </c>
       <c r="F9" s="3">
-        <v>54132900</v>
+        <v>56449700</v>
       </c>
       <c r="G9" s="3">
+        <v>58625700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>57704800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>54503700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>54432300</v>
+      </c>
+      <c r="K9" s="3">
         <v>54917300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>56031300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>53001700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>52007700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>54781300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>52933200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>47112300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13138600</v>
+        <v>12688800</v>
       </c>
       <c r="E10" s="3">
-        <v>11890000</v>
+        <v>12317900</v>
       </c>
       <c r="F10" s="3">
-        <v>12426200</v>
+        <v>13053200</v>
       </c>
       <c r="G10" s="3">
+        <v>11823100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13211200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11955800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>12495000</v>
+      </c>
+      <c r="K10" s="3">
         <v>13628800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>12724900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>11576500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>11702700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>11233500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>9903500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>10377900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +881,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -903,8 +920,20 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,8 +967,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -973,8 +1014,20 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1061,20 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,78 +1085,106 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64413700</v>
+        <v>62631200</v>
       </c>
       <c r="E17" s="3">
-        <v>60858300</v>
+        <v>63422000</v>
       </c>
       <c r="F17" s="3">
-        <v>60387600</v>
+        <v>62758600</v>
       </c>
       <c r="G17" s="3">
+        <v>65634900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>64770000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>61194900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>60721600</v>
+      </c>
+      <c r="K17" s="3">
         <v>62853900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>62666400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>59857000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>58518700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>62121500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>58946500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>53280200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6112200</v>
+        <v>5948900</v>
       </c>
       <c r="E18" s="3">
-        <v>5235600</v>
+        <v>6021100</v>
       </c>
       <c r="F18" s="3">
-        <v>6171500</v>
+        <v>6744300</v>
       </c>
       <c r="G18" s="3">
+        <v>4813800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6146000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5264500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6205600</v>
+      </c>
+      <c r="K18" s="3">
         <v>5692300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>6089800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>4721100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>5191600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>3893200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>3890300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>4210000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,183 +1198,247 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4431900</v>
+        <v>2557200</v>
       </c>
       <c r="E20" s="3">
-        <v>1482100</v>
+        <v>816700</v>
       </c>
       <c r="F20" s="3">
-        <v>1216900</v>
+        <v>946700</v>
       </c>
       <c r="G20" s="3">
+        <v>342600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-4456400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1490300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1223700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-43600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>757600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>540000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>989400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>1396400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>275300</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5805300</v>
+        <v>12230400</v>
       </c>
       <c r="E21" s="3">
-        <v>10802500</v>
+        <v>10343800</v>
       </c>
       <c r="F21" s="3">
-        <v>11126000</v>
+        <v>11312100</v>
       </c>
       <c r="G21" s="3">
+        <v>9435600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5837400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10862200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>11187600</v>
+      </c>
+      <c r="K21" s="3">
         <v>9744800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>10885000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>9181300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>9802600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>7767700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>8902900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>7898100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>80500</v>
+        <v>31500</v>
       </c>
       <c r="E22" s="3">
-        <v>73800</v>
+        <v>95400</v>
       </c>
       <c r="F22" s="3">
-        <v>31100</v>
+        <v>39600</v>
       </c>
       <c r="G22" s="3">
+        <v>68800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>80900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>74200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K22" s="3">
         <v>68100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>58800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>82700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>39700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>86600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>75200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1599800</v>
+        <v>8474600</v>
       </c>
       <c r="E23" s="3">
-        <v>6643900</v>
+        <v>6742400</v>
       </c>
       <c r="F23" s="3">
-        <v>7357300</v>
+        <v>7651500</v>
       </c>
       <c r="G23" s="3">
+        <v>5087500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1608700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6680700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>7398000</v>
+      </c>
+      <c r="K23" s="3">
         <v>5580500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>6788500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>5178300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>6141300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>3811900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>5211500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>4430400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55600</v>
+        <v>2417000</v>
       </c>
       <c r="E24" s="3">
-        <v>2055900</v>
+        <v>2045400</v>
       </c>
       <c r="F24" s="3">
-        <v>2225300</v>
+        <v>2269100</v>
       </c>
       <c r="G24" s="3">
+        <v>1638100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>55900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2067300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2237600</v>
+      </c>
+      <c r="K24" s="3">
         <v>2043900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>-867300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>1707200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>1676000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>919400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>1510700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q24" s="3">
         <v>1482200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,78 +1472,114 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1544200</v>
+        <v>6057500</v>
       </c>
       <c r="E26" s="3">
-        <v>4588000</v>
+        <v>4696900</v>
       </c>
       <c r="F26" s="3">
-        <v>5132000</v>
+        <v>5382400</v>
       </c>
       <c r="G26" s="3">
+        <v>3449500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1552800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4613300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5160400</v>
+      </c>
+      <c r="K26" s="3">
         <v>3536600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>7655800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>3471100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>4465300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>2892500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>3700700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>2948200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1602100</v>
+        <v>6669500</v>
       </c>
       <c r="E27" s="3">
-        <v>5255800</v>
+        <v>5342000</v>
       </c>
       <c r="F27" s="3">
-        <v>5908600</v>
+        <v>6169000</v>
       </c>
       <c r="G27" s="3">
+        <v>4143800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1610900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5284800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5941300</v>
+      </c>
+      <c r="K27" s="3">
         <v>4318700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>8486500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>4115000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>5514200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>3512100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>4293800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>3470500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,8 +1613,20 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1455,8 +1660,20 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1490,8 +1707,20 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1525,78 +1754,114 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4431900</v>
+        <v>-2557200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1482100</v>
+        <v>-816700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1216900</v>
+        <v>-946700</v>
       </c>
       <c r="G32" s="3">
+        <v>-342600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4456400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1490300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1223700</v>
+      </c>
+      <c r="K32" s="3">
         <v>43600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-757600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-540000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>-989400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>-1396400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>-275300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1602100</v>
+        <v>6669500</v>
       </c>
       <c r="E33" s="3">
-        <v>5255800</v>
+        <v>5342000</v>
       </c>
       <c r="F33" s="3">
-        <v>5908600</v>
+        <v>6169000</v>
       </c>
       <c r="G33" s="3">
+        <v>4143800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1610900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5284800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5941300</v>
+      </c>
+      <c r="K33" s="3">
         <v>4318700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>8486500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>4115000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>5514200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>3512100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>4293800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>3470500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,83 +1895,119 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1602100</v>
+        <v>6669500</v>
       </c>
       <c r="E35" s="3">
-        <v>5255800</v>
+        <v>5342000</v>
       </c>
       <c r="F35" s="3">
-        <v>5908600</v>
+        <v>6169000</v>
       </c>
       <c r="G35" s="3">
+        <v>4143800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1610900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5284800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5941300</v>
+      </c>
+      <c r="K35" s="3">
         <v>4318700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>8486500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>4115000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>5514200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>3512100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>4293800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>3470500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +2021,12 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,288 +2040,388 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28584800</v>
+        <v>34171500</v>
       </c>
       <c r="E41" s="3">
-        <v>29350600</v>
+        <v>36176100</v>
       </c>
       <c r="F41" s="3">
-        <v>27364700</v>
+        <v>34194800</v>
       </c>
       <c r="G41" s="3">
+        <v>32494100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>28742900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>29512900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>27516000</v>
+      </c>
+      <c r="K41" s="3">
         <v>27592500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>24829800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>25441600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>26585100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>26566300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>22625500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>24543300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19010900</v>
+        <v>20758700</v>
       </c>
       <c r="E42" s="3">
-        <v>23713800</v>
+        <v>20098500</v>
       </c>
       <c r="F42" s="3">
-        <v>22762900</v>
+        <v>22169900</v>
       </c>
       <c r="G42" s="3">
+        <v>20484400</v>
+      </c>
+      <c r="H42" s="3">
+        <v>19116100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>23844900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>22888800</v>
+      </c>
+      <c r="K42" s="3">
         <v>24133200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>27519000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>27772600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>26991500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>25760700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>23886000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="Q42" s="3">
         <v>22095100</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>81659900</v>
+        <v>86127200</v>
       </c>
       <c r="E43" s="3">
-        <v>82832500</v>
+        <v>84868000</v>
       </c>
       <c r="F43" s="3">
-        <v>81544200</v>
+        <v>85554300</v>
       </c>
       <c r="G43" s="3">
+        <v>87160900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>82111500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>83290600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>81995300</v>
+      </c>
+      <c r="K43" s="3">
         <v>81877100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>82746800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>80079400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>79659600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>77607700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>76423700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="Q43" s="3">
         <v>67244000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23098400</v>
+        <v>22119600</v>
       </c>
       <c r="E44" s="3">
-        <v>23355200</v>
+        <v>23424600</v>
       </c>
       <c r="F44" s="3">
-        <v>22934000</v>
+        <v>24889700</v>
       </c>
       <c r="G44" s="3">
+        <v>24146600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>23226200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>23484300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>23060800</v>
+      </c>
+      <c r="K44" s="3">
         <v>22959700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>22982500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>22523800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>22208700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>21187000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>19622800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>18255100</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8478300</v>
+        <v>11808700</v>
       </c>
       <c r="E45" s="3">
-        <v>8223000</v>
+        <v>7932900</v>
       </c>
       <c r="F45" s="3">
-        <v>8357800</v>
+        <v>8505900</v>
       </c>
       <c r="G45" s="3">
+        <v>7326200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8525200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8268500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>8404000</v>
+      </c>
+      <c r="K45" s="3">
         <v>7537400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>9203800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>8039100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>7840500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>7063200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>8570400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>6705800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>160832400</v>
+        <v>174985600</v>
       </c>
       <c r="E46" s="3">
-        <v>167475000</v>
+        <v>172500200</v>
       </c>
       <c r="F46" s="3">
-        <v>162963600</v>
+        <v>175314600</v>
       </c>
       <c r="G46" s="3">
+        <v>171612300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>161722000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>168401300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>163864900</v>
+      </c>
+      <c r="K46" s="3">
         <v>164100000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>167281900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>163856500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>163285300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>158184900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>151128400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>138843300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>193642500</v>
+        <v>200588300</v>
       </c>
       <c r="E47" s="3">
-        <v>198988700</v>
+        <v>191176600</v>
       </c>
       <c r="F47" s="3">
-        <v>192301900</v>
+        <v>187909200</v>
       </c>
       <c r="G47" s="3">
+        <v>191766700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>194713500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>200089300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>193365500</v>
+      </c>
+      <c r="K47" s="3">
         <v>186824400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>190706700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>186031000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>180707700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>173523600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>175994900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="Q47" s="3">
         <v>158917500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>95430400</v>
+        <v>97319400</v>
       </c>
       <c r="E48" s="3">
-        <v>96555500</v>
+        <v>99353300</v>
       </c>
       <c r="F48" s="3">
-        <v>94787300</v>
+        <v>99036400</v>
       </c>
       <c r="G48" s="3">
+        <v>97131100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>95958200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>97089600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>95311500</v>
+      </c>
+      <c r="K48" s="3">
         <v>92819800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>94588400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>93872800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>92549200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>90448400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>90448900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>82391900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2050,8 +2455,20 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2502,20 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,43 +2549,67 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11912100</v>
+        <v>16159000</v>
       </c>
       <c r="E52" s="3">
-        <v>11725500</v>
+        <v>11832300</v>
       </c>
       <c r="F52" s="3">
-        <v>11431600</v>
+        <v>11487200</v>
       </c>
       <c r="G52" s="3">
+        <v>11596700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>11978000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>11790400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>11494800</v>
+      </c>
+      <c r="K52" s="3">
         <v>11042400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>10419800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>10527100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>10540300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>10257300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>9176700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="Q52" s="3">
         <v>8141300</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,43 +2643,67 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>461817400</v>
+        <v>489052300</v>
       </c>
       <c r="E54" s="3">
-        <v>474744700</v>
+        <v>474862300</v>
       </c>
       <c r="F54" s="3">
-        <v>461484300</v>
+        <v>473747500</v>
       </c>
       <c r="G54" s="3">
+        <v>472106900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>464371700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>477370500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>464036800</v>
+      </c>
+      <c r="K54" s="3">
         <v>454786600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>462996800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>454287400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>447082500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>432414100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>426748900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>388294100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,8 +2717,12 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2255,218 +2736,294 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21203200</v>
+        <v>20918300</v>
       </c>
       <c r="E57" s="3">
-        <v>21523900</v>
+        <v>23148100</v>
       </c>
       <c r="F57" s="3">
-        <v>21611200</v>
+        <v>22398700</v>
       </c>
       <c r="G57" s="3">
+        <v>24052000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>21320400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>21642900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>21730800</v>
+      </c>
+      <c r="K57" s="3">
         <v>23383400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>20867100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>21729900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>21057200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>22763800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>18944200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>19743700</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>88543000</v>
+        <v>90630200</v>
       </c>
       <c r="E58" s="3">
-        <v>88781800</v>
+        <v>87734800</v>
       </c>
       <c r="F58" s="3">
-        <v>88817100</v>
+        <v>87264700</v>
       </c>
       <c r="G58" s="3">
+        <v>87257000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>89032700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>89272900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>89308300</v>
+      </c>
+      <c r="K58" s="3">
         <v>84444400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>89248600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>84914500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>83687100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>81995400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>84840900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>72334800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>50906200</v>
+        <v>53271200</v>
       </c>
       <c r="E59" s="3">
-        <v>52250700</v>
+        <v>52121400</v>
       </c>
       <c r="F59" s="3">
-        <v>50783600</v>
+        <v>53063400</v>
       </c>
       <c r="G59" s="3">
+        <v>54373800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>51187700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>52539700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>51064500</v>
+      </c>
+      <c r="K59" s="3">
         <v>53056200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>50728500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>49950900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>50604800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>48860000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>46011600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>41133500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>160652300</v>
+        <v>164819700</v>
       </c>
       <c r="E60" s="3">
-        <v>162556400</v>
+        <v>163004200</v>
       </c>
       <c r="F60" s="3">
-        <v>161211900</v>
+        <v>162726900</v>
       </c>
       <c r="G60" s="3">
+        <v>165682900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>161540900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>163455500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>162103600</v>
+      </c>
+      <c r="K60" s="3">
         <v>160883900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>160844300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>156595300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>155349100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>153619200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>149796700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>133212000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>94319200</v>
+        <v>99399000</v>
       </c>
       <c r="E61" s="3">
-        <v>100023000</v>
+        <v>93992500</v>
       </c>
       <c r="F61" s="3">
-        <v>94156600</v>
+        <v>95891900</v>
       </c>
       <c r="G61" s="3">
+        <v>95908100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>94840900</v>
+      </c>
+      <c r="I61" s="3">
+        <v>100576300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>94677400</v>
+      </c>
+      <c r="K61" s="3">
         <v>90457600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>94846200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>94945500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>93294300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>87915900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>87646900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>77222800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23555500</v>
+        <v>29110800</v>
       </c>
       <c r="E62" s="3">
-        <v>24954100</v>
+        <v>26954500</v>
       </c>
       <c r="F62" s="3">
-        <v>24204800</v>
+        <v>26615500</v>
       </c>
       <c r="G62" s="3">
+        <v>23578200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>23685800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>25092200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>24338700</v>
+      </c>
+      <c r="K62" s="3">
         <v>23349500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>24966000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>27314600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>26464000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>25285500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>26194100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="Q62" s="3">
         <v>23146400</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2500,8 +3057,20 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +3104,20 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2570,43 +3151,67 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>284781500</v>
+        <v>299931500</v>
       </c>
       <c r="E66" s="3">
-        <v>293881000</v>
+        <v>290359100</v>
       </c>
       <c r="F66" s="3">
-        <v>285756900</v>
+        <v>291719300</v>
       </c>
       <c r="G66" s="3">
+        <v>291704700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>286356600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>295506500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>287337500</v>
+      </c>
+      <c r="K66" s="3">
         <v>280965800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>286848900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>284850300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>281101200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>272748000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>269069900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>238609600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,8 +3225,12 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2655,8 +3264,20 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2690,43 +3311,67 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4469200</v>
+        <v>4543600</v>
       </c>
       <c r="E70" s="3">
-        <v>4480700</v>
+        <v>4560900</v>
       </c>
       <c r="F70" s="3">
-        <v>4447200</v>
+        <v>4521600</v>
       </c>
       <c r="G70" s="3">
+        <v>4527500</v>
+      </c>
+      <c r="H70" s="3">
+        <v>4493900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>4505400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>4471800</v>
+      </c>
+      <c r="K70" s="3">
         <v>4447400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="L70" s="3">
         <v>4419700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="M70" s="3">
         <v>4425500</v>
       </c>
-      <c r="J70" s="3">
+      <c r="N70" s="3">
         <v>4397800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="O70" s="3">
         <v>4309700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="P70" s="3">
         <v>4288000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="Q70" s="3">
         <v>4288200</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,43 +3405,67 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>194646100</v>
+        <v>212422000</v>
       </c>
       <c r="E72" s="3">
-        <v>193968900</v>
+        <v>208287900</v>
       </c>
       <c r="F72" s="3">
-        <v>188713100</v>
+        <v>202945800</v>
       </c>
       <c r="G72" s="3">
+        <v>199866500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>195722700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>195041700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>189756900</v>
+      </c>
+      <c r="K72" s="3">
         <v>176040100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>171618300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>165782000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>161668700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>156121500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>152612700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>154350200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,8 +3499,20 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,8 +3546,20 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2900,43 +3593,67 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>172566700</v>
+        <v>184577200</v>
       </c>
       <c r="E76" s="3">
-        <v>176383000</v>
+        <v>179942400</v>
       </c>
       <c r="F76" s="3">
-        <v>171280100</v>
+        <v>177506600</v>
       </c>
       <c r="G76" s="3">
+        <v>175874700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>173521200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>177358600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>172227500</v>
+      </c>
+      <c r="K76" s="3">
         <v>169373300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>171728300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>165011600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>161583500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>155356400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>153390900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>145396200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,83 +3687,119 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1602100</v>
+        <v>6669500</v>
       </c>
       <c r="E81" s="3">
-        <v>5255800</v>
+        <v>5342000</v>
       </c>
       <c r="F81" s="3">
-        <v>5908600</v>
+        <v>6169000</v>
       </c>
       <c r="G81" s="3">
+        <v>4143800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1610900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>5284800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5941300</v>
+      </c>
+      <c r="K81" s="3">
         <v>4318700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>8486500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>4115000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>5514200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>3512100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>4293800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>3470500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3060,43 +3813,59 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4125000</v>
+        <v>3724300</v>
       </c>
       <c r="E83" s="3">
-        <v>4084800</v>
+        <v>3506100</v>
       </c>
       <c r="F83" s="3">
-        <v>3737600</v>
+        <v>3621000</v>
       </c>
       <c r="G83" s="3">
+        <v>4279200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4147800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4107300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3758300</v>
+      </c>
+      <c r="K83" s="3">
         <v>4096100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>4037700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>3920300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>3621600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>3869200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>3616300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>3412800</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,8 +3899,20 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3946,20 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3993,20 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3235,8 +4040,20 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3270,43 +4087,67 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9406900</v>
+        <v>7465800</v>
       </c>
       <c r="E89" s="3">
-        <v>9059600</v>
+        <v>10537100</v>
       </c>
       <c r="F89" s="3">
-        <v>7449100</v>
+        <v>8257100</v>
       </c>
       <c r="G89" s="3">
+        <v>8179400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>9458900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>9109700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>7490300</v>
+      </c>
+      <c r="K89" s="3">
         <v>12349800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>7282900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>8731700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>9694200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>11113700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>5205900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>3514000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3320,43 +4161,59 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3033000</v>
+        <v>-3023700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2657900</v>
+        <v>-2875000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3827800</v>
+        <v>-3716000</v>
       </c>
       <c r="G91" s="3">
+        <v>-3634000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3049700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2672600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3848900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3794700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-2641300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-2691800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-2543900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-8260400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-7265200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="Q91" s="3">
         <v>-7371200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,8 +4247,20 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3425,43 +4294,67 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4415200</v>
+        <v>-10884400</v>
       </c>
       <c r="E94" s="3">
-        <v>-7337200</v>
+        <v>-6912000</v>
       </c>
       <c r="F94" s="3">
-        <v>-9425300</v>
+        <v>-6645400</v>
       </c>
       <c r="G94" s="3">
+        <v>-3223100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-4439600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-7377800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9477500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6783100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-8799800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-8303500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-9200700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-7191200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-9972400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>-4224000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,43 +4368,59 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-44900</v>
+        <v>-56500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-33600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-33600</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-22400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-21900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3545,8 +4454,20 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,8 +4501,20 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3615,109 +4548,157 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5337900</v>
+        <v>1647200</v>
       </c>
       <c r="E100" s="3">
-        <v>-23800</v>
+        <v>-1412800</v>
       </c>
       <c r="F100" s="3">
-        <v>1419300</v>
+        <v>369500</v>
       </c>
       <c r="G100" s="3">
+        <v>-952000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-5367500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1427200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2127600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>797600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-1738300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-991900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>17800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>1679500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>-3566000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-457800</v>
+        <v>-202600</v>
       </c>
       <c r="E101" s="3">
-        <v>247200</v>
+        <v>-309500</v>
       </c>
       <c r="F101" s="3">
-        <v>86700</v>
+        <v>-308800</v>
       </c>
       <c r="G101" s="3">
+        <v>-253900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-460300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>248600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>87100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-676400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>107600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>166700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>1169200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="Q101" s="3">
         <v>-223300</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-804000</v>
+        <v>-1974000</v>
       </c>
       <c r="E102" s="3">
-        <v>1945800</v>
+        <v>1902700</v>
       </c>
       <c r="F102" s="3">
-        <v>-470300</v>
+        <v>1672300</v>
       </c>
       <c r="G102" s="3">
+        <v>3750400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-808400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1956600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-472900</v>
+      </c>
+      <c r="K102" s="3">
         <v>2762700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>-611800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-1143500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-490400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>3940800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-1917900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>-4499300</v>
       </c>
     </row>
